--- a/data/trans_camb/P43_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P43_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 2,24</t>
+          <t>-5,49; 5,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 2,87</t>
+          <t>-4,87; 6,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 11,34</t>
+          <t>-1,74; 10,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 11,18</t>
+          <t>-2,23; 8,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 4,62</t>
+          <t>-2,73; 7,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,37</t>
+          <t>-3,08; 7,46</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 5,2</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 4,89</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 7,11</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-40,66%</t>
+          <t>-8,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-32,16%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>30,88%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22,97%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>48,77%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,35; 30,67</t>
+          <t>-64,09; 157,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,06; 37,77</t>
+          <t>-61,11; 202,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 85,8</t>
+          <t>-23,95; 314,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 87,18</t>
+          <t>-27,26; 204,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 39,63</t>
+          <t>-34,17; 177,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 35,2</t>
+          <t>-35,05; 178,61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-26,73; 110,41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,8; 104,83</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-12,73; 153,14</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 11,13</t>
+          <t>-4,87; 6,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 9,67</t>
+          <t>-5,41; 5,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 12,59</t>
+          <t>-3,79; 8,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 10,2</t>
+          <t>-1,97; 8,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 9,39</t>
+          <t>-3,47; 6,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 6,53</t>
+          <t>-2,58; 8,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 6,23</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 4,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 7,01</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>50,82%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32,39%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43,04%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,37; 202,85</t>
+          <t>-55,31; 172,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 183,77</t>
+          <t>-57,69; 146,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 132,0</t>
+          <t>-43,37; 204,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 101,34</t>
+          <t>-33,42; 281,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 106,29</t>
+          <t>-46,14; 195,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 78,39</t>
+          <t>-42,16; 286,87</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-27,33; 143,89</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-36,13; 117,63</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-21,44; 156,35</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>33,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,01</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 18,64</t>
+          <t>0,0; 15,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 15,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 18,81</t>
+          <t>6,95; 74,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 19,98</t>
+          <t>-18,66; 9,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 13,13</t>
+          <t>-18,7; 10,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 11,53</t>
+          <t>-12,47; 19,75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,84; 7,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,99; 5,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 43,97</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,05%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,55%</t>
+          <t>-29,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>-27,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,39%</t>
+          <t>34,71%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-8,88%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-31,04%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>312,46%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-84,71; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,22; 228,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,21; 262,32</t>
+          <t>-100,0; 246,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 146,88</t>
+          <t>-100,0; 307,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,2; 133,17</t>
+          <t>-71,51; 438,17</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-85,89; 369,53</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 2472,03</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 3,94</t>
+          <t>-3,24; 4,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,63</t>
+          <t>-3,45; 3,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,7</t>
+          <t>2,18; 15,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 7,92</t>
+          <t>-1,21; 6,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,75</t>
+          <t>-2,04; 5,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,5</t>
+          <t>-0,95; 6,7</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 4,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 3,53</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 8,9</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>119,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>39,11%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>74,7%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 42,7</t>
+          <t>-43,71; 112,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 43,72</t>
+          <t>-45,63; 99,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 66,39</t>
+          <t>21,98; 353,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 57,52</t>
+          <t>-17,2; 124,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 42,96</t>
+          <t>-25,29; 106,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 38,64</t>
+          <t>-12,38; 133,31</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-14,58; 87,43</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-21,34; 71,88</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 172,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
